--- a/biology/Médecine/Pierre_Baux/Pierre_Baux.xlsx
+++ b/biology/Médecine/Pierre_Baux/Pierre_Baux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre Baux (second du nom), issu d'une famille protestante de grands médecins nîmois, est un médecin, météorologiste et naturaliste français, né le 20 mai 1708 à Nîmes (Gard), et décédé le 29 octobre 1790 à Nîmes.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Agrégé au collège de médecins de Marseille, c'était un des plus zélés propagateurs de l'inoculation.
 C'était également un proche collaborateur et ami de Réaumur (1683-1757). Il devient son correspondant à l'Académie des sciences le 24 juillet 1751 avant de devenir celui d'Antoine de Jussieu (1686-1758) le 20 décembre 1757, dont le frère Bernard de Jussieu (1699-1777), était un de ses collaborateurs.
@@ -547,7 +561,9 @@
           <t>Famille</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre II Baux est le fils de Pierre Ier Baux (1679-1732), médecin de renommée internationale, et l'arrière-petit-fils de Salomon Baux.
 Pierre II Baux est le grand-père maternel de Benjamin Valz (1787-1867), astronome célèbre (qui continuera les recherches de Pierre Baux), et le beau-père de Jean Valz, un négociant fortuné et homme d'influence du Gard, qui sera une des dernières victimes de la Terreur.
@@ -580,7 +596,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Parallèle de la petite vérole naturelle avec l'artificielle ou inoculée, Avignon, 1761.
 Observations météorologiques ; fruit de quarante années de travail.
